--- a/data/vse_instrumenti_metabo.xlsx
+++ b/data/vse_instrumenti_metabo.xlsx
@@ -6815,7 +6815,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6837,14 +6837,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -6909,7 +6901,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -6918,23 +6910,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7019,21 +7011,21 @@
   <dimension ref="A1:C1121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B473" activeCellId="0" sqref="B473"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="99.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
